--- a/数据整理/stocks/A股/深证主板/002317-众生药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002317-众生药业.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,85 +22,133 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>005108</t>
+  </si>
+  <si>
+    <t>005112</t>
+  </si>
+  <si>
+    <t>001965</t>
+  </si>
+  <si>
+    <t>005505</t>
+  </si>
+  <si>
+    <t>005506</t>
+  </si>
+  <si>
+    <t>001966</t>
+  </si>
+  <si>
     <t>006274</t>
   </si>
   <si>
-    <t>005505</t>
-  </si>
-  <si>
-    <t>005506</t>
-  </si>
-  <si>
-    <t>001965</t>
-  </si>
-  <si>
-    <t>001966</t>
-  </si>
-  <si>
-    <t>005112</t>
-  </si>
-  <si>
-    <t>005108</t>
+    <t>圆信永丰双利优选定期开放灵活配置混合</t>
+  </si>
+  <si>
+    <t>银华中证全指医药卫生指数增强</t>
+  </si>
+  <si>
+    <t>圆信永丰兴源灵活配置混合A</t>
+  </si>
+  <si>
+    <t>前海开源中药研究精选股票A</t>
+  </si>
+  <si>
+    <t>前海开源中药研究精选股票C</t>
+  </si>
+  <si>
+    <t>圆信永丰兴源灵活配置混合C</t>
   </si>
   <si>
     <t>圆信永丰医药健康混合</t>
   </si>
   <si>
-    <t>前海开源中药研究精选股票A</t>
-  </si>
-  <si>
-    <t>前海开源中药研究精选股票C</t>
-  </si>
-  <si>
-    <t>圆信永丰兴源灵活配置混合A</t>
-  </si>
-  <si>
-    <t>圆信永丰兴源灵活配置混合C</t>
-  </si>
-  <si>
-    <t>银华中证全指医药卫生指数增强</t>
-  </si>
-  <si>
-    <t>圆信永丰双利优选定期开放灵活配置混合</t>
+    <t>1.86</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>94.09</t>
+  </si>
+  <si>
+    <t>92.20</t>
+  </si>
+  <si>
+    <t>94.43</t>
+  </si>
+  <si>
+    <t>81.41</t>
   </si>
   <si>
     <t>90.98</t>
   </si>
   <si>
-    <t>81.41</t>
-  </si>
-  <si>
-    <t>94.43</t>
-  </si>
-  <si>
-    <t>92.20</t>
-  </si>
-  <si>
-    <t>94.09</t>
+    <t>6.86</t>
+  </si>
+  <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>6.99</t>
+  </si>
+  <si>
+    <t>5.12</t>
   </si>
   <si>
     <t>6.97</t>
   </si>
   <si>
-    <t>5.12</t>
-  </si>
-  <si>
-    <t>6.99</t>
-  </si>
-  <si>
-    <t>4.01</t>
-  </si>
-  <si>
-    <t>6.86</t>
+    <t>0.1276</t>
+  </si>
+  <si>
+    <t>0.0878</t>
+  </si>
+  <si>
+    <t>0.0853</t>
+  </si>
+  <si>
+    <t>0.0276</t>
+  </si>
+  <si>
+    <t>0.0174</t>
+  </si>
+  <si>
+    <t>0.0154</t>
+  </si>
+  <si>
+    <t>0.0139</t>
   </si>
 </sst>
 </file>
@@ -458,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,144 +528,192 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002317-众生药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002317-众生药业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3759</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002317-众生药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002317-众生药业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002317-众生药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002317-众生药业.xlsx
@@ -1169,12 +1169,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002317-众生药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002317-众生药业.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1153,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,17 +1165,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1205,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.75</v>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2367</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1200,14 +1243,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7356</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1216,13 +1281,703 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5278</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3462</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2971</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002317-众生药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002317-众生药业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1892,7 +1893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1903,17 +1904,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1923,14 +1944,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.94</v>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5166</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1939,14 +1982,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.75</v>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9614</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1955,14 +2020,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.08</v>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5847</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1971,13 +2058,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3721</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2331</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002317-众生药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002317-众生药业.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>4.41</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>3.94</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>0.75</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -566,6 +583,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0763</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9055</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7196</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6834</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4246</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3874</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2129</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013559</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014840</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商裕华混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>63.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014841</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014842</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009719</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009718</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013560</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1153,7 +2328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1891,7 +3066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2137,7 +3312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2269,7 +3444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002317-众生药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002317-众生药业.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>7.58</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>4.41</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>3.94</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>0.75</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -583,6 +600,936 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9777</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0596</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8619</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>560080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证中药 ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6778</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5754</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3841</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3693</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159647</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013559</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014841</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014840</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商裕华混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>561510</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014589</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商成长先导股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>562390</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014842</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013560</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014590</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商成长先导股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1740,7 +2687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2328,7 +3275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3066,7 +4013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3312,7 +4259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3444,7 +4391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
